--- a/ofc/estimates/hume pipe raj kumar dai/ह्युम पाइप बिछ्याउने कार्य  - Copy.xlsx
+++ b/ofc/estimates/hume pipe raj kumar dai/ह्युम पाइप बिछ्याउने कार्य  - Copy.xlsx
@@ -189,12 +189,6 @@
     <t>F.Y.: 2081/2082</t>
   </si>
   <si>
-    <t>Date:2081/09/11</t>
-  </si>
-  <si>
-    <t>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</t>
-  </si>
-  <si>
     <t>-hume pipe</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t xml:space="preserve">Project:- ह्युम पाइप बिछ्याउने कार्य </t>
+  </si>
+  <si>
+    <t>Date:2081/09/14</t>
+  </si>
+  <si>
+    <t>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer. (खन्ने पुर्ने )</t>
   </si>
 </sst>
 </file>
@@ -518,6 +518,24 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,22 +560,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,18 +581,6 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,90 +1161,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="70" t="e">
+      <c r="C6" s="62" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1252,11 +1252,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="70" t="e">
+      <c r="J6" s="62" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="71"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -1265,77 +1265,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="I7" s="66" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="I7" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="e">
+      <c r="A8" s="70" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="I8" s="67" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="I8" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="e">
+      <c r="A9" s="74" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="I9" s="67" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="I9" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69" t="s">
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="62" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="69" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1354,8 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="e">
@@ -1517,13 +1517,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1537,6 +1530,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,113 +1573,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="A6" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
+      <c r="H7" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1716,12 +1716,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="38"/>
@@ -1743,7 +1743,7 @@
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -1752,14 +1752,14 @@
         <v>10</v>
       </c>
       <c r="E10" s="38">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="38">
         <v>0.6</v>
       </c>
       <c r="G10" s="39">
         <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
-        <v>2.6999999999999997</v>
+        <v>3</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
@@ -1784,17 +1784,17 @@
       <c r="F11" s="38"/>
       <c r="G11" s="34">
         <f>SUM(G10:G10)</f>
-        <v>2.6999999999999997</v>
+        <v>3</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="40">
         <v>64.63</v>
       </c>
       <c r="J11" s="44">
         <f>G11*I11</f>
-        <v>174.50099999999998</v>
+        <v>193.89</v>
       </c>
       <c r="K11" s="21"/>
       <c r="M11" s="25"/>
@@ -1819,7 +1819,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="44">
         <f>0.13*G11*19284/360</f>
-        <v>18.801899999999996</v>
+        <v>20.891000000000002</v>
       </c>
       <c r="K12" s="21"/>
       <c r="M12" s="25"/>
@@ -1855,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="19">
         <v>4</v>
@@ -1895,7 +1895,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="23">
         <v>5144.96</v>
@@ -2021,7 +2021,7 @@
       <c r="I20" s="41"/>
       <c r="J20" s="41">
         <f>SUM(J9:J18)</f>
-        <v>58108.821300000003</v>
+        <v>58130.299400000004</v>
       </c>
       <c r="K20" s="36"/>
     </row>
@@ -2043,11 +2043,11 @@
       <c r="B22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="80">
         <f>J20</f>
-        <v>58108.821300000003</v>
-      </c>
-      <c r="D22" s="76"/>
+        <v>58130.299400000004</v>
+      </c>
+      <c r="D22" s="80"/>
       <c r="E22" s="39">
         <v>100</v>
       </c>
@@ -2063,10 +2063,10 @@
       <c r="B23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="79">
-        <v>50000</v>
-      </c>
-      <c r="D23" s="79"/>
+      <c r="C23" s="83">
+        <v>52000</v>
+      </c>
+      <c r="D23" s="83"/>
       <c r="E23" s="39"/>
       <c r="F23" s="48"/>
       <c r="G23" s="47"/>
@@ -2080,14 +2080,14 @@
       <c r="B24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="83">
         <f>C23-C26-C27</f>
-        <v>47500</v>
-      </c>
-      <c r="D24" s="79"/>
+        <v>49400</v>
+      </c>
+      <c r="D24" s="83"/>
       <c r="E24" s="39">
         <f>C24/C22*100</f>
-        <v>81.743182768706404</v>
+        <v>84.981499338363975</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="47"/>
@@ -2101,14 +2101,14 @@
       <c r="B25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="80">
         <f>C22-C24</f>
-        <v>10608.821300000003</v>
-      </c>
-      <c r="D25" s="76"/>
+        <v>8730.2994000000035</v>
+      </c>
+      <c r="D25" s="80"/>
       <c r="E25" s="39">
         <f>100-E24</f>
-        <v>18.256817231293596</v>
+        <v>15.018500661636025</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="47"/>
@@ -2122,11 +2122,11 @@
       <c r="B26" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="80">
         <f>C23*0.03</f>
-        <v>1500</v>
-      </c>
-      <c r="D26" s="76"/>
+        <v>1560</v>
+      </c>
+      <c r="D26" s="80"/>
       <c r="E26" s="39">
         <v>3</v>
       </c>
@@ -2142,11 +2142,11 @@
       <c r="B27" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="80">
         <f>C23*0.02</f>
-        <v>1000</v>
-      </c>
-      <c r="D27" s="76"/>
+        <v>1040</v>
+      </c>
+      <c r="D27" s="80"/>
       <c r="E27" s="39">
         <v>2</v>
       </c>
@@ -2228,13 +2228,6 @@
     <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A7:F7"/>
@@ -2243,6 +2236,13 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
